--- a/data/trans_media/IQ09_M-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ09_M-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,06</t>
+          <t>0,77; 2,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 4,64</t>
+          <t>0,51; 4,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,68</t>
+          <t>0,0; 2,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -769,17 +769,17 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,36</t>
+          <t>0,57; 2,27</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,71</t>
+          <t>0,0; 0,72</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 3,3</t>
+          <t>0,39; 3,3</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 3,38</t>
+          <t>0,7; 3,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,25</t>
+          <t>1,04; 3,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,78</t>
+          <t>0,69; 2,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,92</t>
+          <t>0,45; 1,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,29</t>
+          <t>0,25; 2,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,42</t>
+          <t>0,75; 2,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,61; 2,99</t>
+          <t>0,57; 3,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 2,01</t>
+          <t>0,52; 1,95</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,68; 2,56</t>
+          <t>0,71; 2,59</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,34</t>
+          <t>1,1; 2,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,87; 2,36</t>
+          <t>0,88; 2,32</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 1,54</t>
+          <t>0,56; 1,51</t>
         </is>
       </c>
     </row>
@@ -1004,27 +1004,27 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,73</t>
+          <t>0,0; 1,74</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,18</t>
+          <t>0,42; 2,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 5,3</t>
+          <t>0,88; 5,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,47; 6,24</t>
+          <t>0,52; 6,25</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,52</t>
+          <t>0,0; 5,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,27 +1039,27 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,3</t>
+          <t>0,18; 1,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,46</t>
+          <t>0,0; 2,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,1</t>
+          <t>0,5; 2,03</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,06</t>
+          <t>1,26; 4,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 3,85</t>
+          <t>0,53; 3,78</t>
         </is>
       </c>
     </row>
@@ -1144,37 +1144,37 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,35</t>
+          <t>0,45; 2,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 2,69</t>
+          <t>1,16; 2,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,84</t>
+          <t>0,98; 2,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,44</t>
+          <t>0,76; 2,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,01</t>
+          <t>0,26; 1,96</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,03</t>
+          <t>0,72; 2,03</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 2,7</t>
+          <t>0,72; 2,88</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,22 +1184,22 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,54; 1,85</t>
+          <t>0,55; 1,78</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,1</t>
+          <t>1,09; 2,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,39</t>
+          <t>1,06; 2,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,75; 1,84</t>
+          <t>0,76; 1,82</t>
         </is>
       </c>
     </row>
